--- a/Example_Systems/ERCOT_Supporting_Files/Cap_Summary.xlsx
+++ b/Example_Systems/ERCOT_Supporting_Files/Cap_Summary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sc87/code/Stochastic_GenX/GenX/Example_Systems/ERCOT_Supporting_Files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD84486-0766-FF4B-A0FD-AB11681F59CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39CAD2-70CB-9F48-9FA4-F781795C5C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3260" windowWidth="35840" windowHeight="17440" xr2:uid="{5B648F8F-D66E-A542-BA15-FB7722C0D625}"/>
+    <workbookView xWindow="840" yWindow="2400" windowWidth="28040" windowHeight="17440" xr2:uid="{5B648F8F-D66E-A542-BA15-FB7722C0D625}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -442,10 +442,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1560250E-415C-4E42-8484-96ED3ED41689}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -457,7 +457,7 @@
     <col min="5" max="5" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -480,7 +480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -499,8 +499,11 @@
       <c r="G2">
         <v>154.40540060458301</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H2">
+        <v>206.620203522932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -519,8 +522,11 @@
       <c r="G3">
         <v>62.843757067189898</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -539,8 +545,11 @@
       <c r="G4">
         <v>27012.494362048401</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4">
+        <v>16750.434756480499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -559,8 +568,11 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -579,8 +591,11 @@
       <c r="G6">
         <v>64281.590801588805</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>175024.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -599,8 +614,11 @@
       <c r="G7">
         <v>70537.923432978641</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H7">
+        <v>97295.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -619,8 +637,11 @@
       <c r="G8">
         <v>29.535048739434295</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -639,8 +660,11 @@
       <c r="G9">
         <v>6643.0929590612004</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -659,8 +683,11 @@
       <c r="G10">
         <v>22003.532413459099</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10">
+        <v>46355.761899999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -679,8 +706,11 @@
       <c r="G11">
         <v>126.73429549972801</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -697,6 +727,9 @@
         <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>0</v>
       </c>
     </row>
